--- a/equipment/座位安排表.xlsx
+++ b/equipment/座位安排表.xlsx
@@ -43,43 +43,43 @@
     <t>赵明轩</t>
   </si>
   <si>
+    <t>廖峰</t>
+  </si>
+  <si>
+    <t>张麒</t>
+  </si>
+  <si>
+    <t>何雨秋</t>
+  </si>
+  <si>
+    <t>从万松</t>
+  </si>
+  <si>
+    <t>刘轩睿</t>
+  </si>
+  <si>
+    <t>周昕壮</t>
+  </si>
+  <si>
+    <t>李佳媛</t>
+  </si>
+  <si>
+    <t>王博辉</t>
+  </si>
+  <si>
+    <t>郑浩然</t>
+  </si>
+  <si>
+    <t>高浩搏</t>
+  </si>
+  <si>
+    <t>王崇昂</t>
+  </si>
+  <si>
+    <t>年佳茹</t>
+  </si>
+  <si>
     <t>丁凯</t>
-  </si>
-  <si>
-    <t>张麒</t>
-  </si>
-  <si>
-    <t>何雨秋</t>
-  </si>
-  <si>
-    <t>从万松</t>
-  </si>
-  <si>
-    <t>刘轩睿</t>
-  </si>
-  <si>
-    <t>周昕壮</t>
-  </si>
-  <si>
-    <t>李佳媛</t>
-  </si>
-  <si>
-    <t>王博辉</t>
-  </si>
-  <si>
-    <t>郑浩然</t>
-  </si>
-  <si>
-    <t>高浩搏</t>
-  </si>
-  <si>
-    <t>王崇昂</t>
-  </si>
-  <si>
-    <t>年佳茹</t>
-  </si>
-  <si>
-    <t>廖峰</t>
   </si>
   <si>
     <t>马圣秦</t>
@@ -126,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -149,6 +149,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -157,7 +218,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,7 +240,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,7 +255,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,97 +291,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -301,187 +301,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,15 +525,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -545,30 +536,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,6 +560,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -607,6 +583,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -615,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/equipment/座位安排表.xlsx
+++ b/equipment/座位安排表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9360"/>
+    <workbookView windowWidth="11520" windowHeight="9095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,6 +148,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -162,6 +193,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -170,19 +215,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,16 +247,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,29 +264,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,42 +285,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -301,79 +301,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,103 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,6 +511,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -521,21 +545,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,15 +569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -584,6 +584,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -592,21 +607,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -615,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/equipment/座位安排表.xlsx
+++ b/equipment/座位安排表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9095"/>
+    <workbookView windowWidth="23040" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>一排</t>
   </si>
@@ -106,16 +106,13 @@
     <t>王春鑫</t>
   </si>
   <si>
-    <t>王芷峰</t>
+    <t>贾海港</t>
   </si>
   <si>
     <t>杨磊</t>
   </si>
   <si>
     <t>张天庆</t>
-  </si>
-  <si>
-    <t>贾海港</t>
   </si>
   <si>
     <t>潘德鑫</t>
@@ -156,6 +153,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -165,27 +261,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -194,99 +283,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,187 +298,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,30 +503,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,13 +531,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,17 +561,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,6 +593,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -615,10 +612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,31 +624,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,104 +657,104 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -769,6 +766,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1245,11 +1245,9 @@
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
